--- a/claude_ai_google_sheet/test_claude_tunisia.xlsx
+++ b/claude_ai_google_sheet/test_claude_tunisia.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="373">
   <si>
     <t>NAME</t>
   </si>
@@ -125,13 +125,16 @@
     <t>Réponds UNIQUEMENT en français. Crée trois messages pour réseaux sociaux (280 caractères max) basés sur ce texte sportif :</t>
   </si>
   <si>
-    <t>english</t>
+    <t>tunisien</t>
   </si>
   <si>
     <t>Responde SOLAMENTE en español. Crea tres mensajes para redes sociales (máximo 280 caracteres) basados en este texto deportivo:</t>
   </si>
   <si>
     <t>Answer ONLY in English. Create three social media posts (280 characters max) based on this sports article:</t>
+  </si>
+  <si>
+    <t>أجب باللغة العربية فقط. أنشئ ثلاث منشورات على مواقع التواصل الاجتماعي (بحد أقصى ٢٨٠ حرفًا) استنادًا إلى هذه المقالة الرياضية:</t>
   </si>
   <si>
     <t>Requêtes</t>
@@ -210,6 +213,12 @@
     <t>Pommes</t>
   </si>
   <si>
+    <t>Cars</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
     <t>Toyota Corolla</t>
   </si>
   <si>
@@ -219,16 +228,16 @@
     <t>Bananes</t>
   </si>
   <si>
+    <t>Honda Civic</t>
+  </si>
+  <si>
     <t>iPhone 15</t>
   </si>
   <si>
-    <t>Honda Civic</t>
+    <t>Oranges</t>
   </si>
   <si>
     <t>Samsung Galaxy</t>
-  </si>
-  <si>
-    <t>Oranges</t>
   </si>
   <si>
     <t>Dell XPS</t>
@@ -2074,7 +2083,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2119,6 +2128,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2654,38 +2666,38 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" s="9" t="str">
         <f>CLAUDEEXTRACT("phone", ""&amp;A2)</f>
-        <v>Loading...</v>
+        <v>06 12 34 56 78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="9" t="str">
         <f>CLAUDEEXTRACT("date",""&amp;A3)</f>
-        <v>Loading...</v>
+        <v>15 mai 2025</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" s="9" t="str">
         <f>CLAUDEEXTRACT("address", ""&amp;A4)</f>
-        <v>Loading...</v>
+        <v>123 Avenue des Champs-Élysées, 75008 Paris, France</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" s="9" t="str">
         <f>CLAUDEEXTRACT("name", ""&amp;A5)</f>
-        <v>Loading...</v>
+        <v>Sophie Martin</v>
       </c>
     </row>
   </sheetData>
@@ -2707,11 +2719,11 @@
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2736,86 +2748,108 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="21" t="str">
+        <v>56</v>
+      </c>
+      <c r="B2" s="22" t="str">
         <f>CLAUDECLUSTER(A1:A10)</f>
-        <v>Loading...</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+        <v>Fruits</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="C3" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+        <v>60</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+        <v>61</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+        <v>63</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+        <v>62</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+        <v>65</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+        <v>64</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+        <v>66</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+        <v>67</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2842,55 +2876,87 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
+      <c r="B1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B2" s="12" t="str">
         <f>CLAUDE("Analyse l'intention de recherche derrière ce mot-clé : "&amp;A1&amp;". Catégorise-la comme : informationnelle, navigationnelle, commerciale ou transactionnelle.", "claude-3-haiku-20240307", "temperature", 0.1)</f>
-        <v>Loading...</v>
+        <v>Analysons l'intention de recherche derrière le mot-clé "Mot-clé" :
+Ce mot-clé est très générique et peut correspondre à différentes intentions de recherche. Voici comment on peut les catégoriser :
+1. Intention informationnelle :
+   - L'utilisateur cherche des informations générales sur la notion de "mot-clé" en tant que concept, par exemple sa définition, son utilisation, son importance, etc.
+   - Il souhaite acquérir des connaissances de base sur les mots-clés.
+2. Intention navigationnelle :
+   - L'utilisateur cherche à accéder à une page web ou un site web spécifique qui traite des mots-clés.
+   - Il peut par exemple vouloir se rendre sur un site d'information ou un blog dédié aux mots-clés.
+3. Intention commerciale :
+   - L'utilisateur est à la recherche de services ou d'outils liés aux mots-clés, comme des logiciels d'analyse de mots-clés, des formations sur l'optimisation des mots-clés, etc.
+   - Il est intéressé par des offres commerciales en lien avec les mots-clés.
+4. Intention transactionnelle :
+   - L'utilisateur souhaite effectuer une action spécifique en lien avec les mots-clés, comme acheter un outil d'analyse de mots-clés, s'inscrire à une formation, etc.
+   - Il est prêt à réaliser une transaction pour obtenir un produit ou un service lié aux mots-clés.
+En résumé, le mot-clé "Mot-clé" peut correspondre à différentes intentions de recherche, allant de l'intention informationnelle à l'intention transactionnelle, en passant par l'intention navigationnelle et commerciale. L'analyse du contexte et des résultats de recherche serait nécessaire pour déterminer avec précision l'intention de l'utilisateur.</v>
       </c>
       <c r="C2" s="12" t="str">
         <f t="shared" ref="C2:C3" si="1">CLAUDE("Génère 5 variations de mots-clés à longue traîne pour : "&amp;A2, "claude-3-haiku-20240307", "temperature", 0.2)</f>
-        <v>Loading...</v>
+        <v>Voici 5 variations de mots-clés à longue traîne pour "formation marketing digital" :
+1. formation en marketing numérique pour entreprises
+2. cours de marketing digital certifiant en ligne
+3. programme de certification en stratégie marketing digitale
+4. formation professionnelle approfondie en marketing digital
+5. formation complète en techniques de marketing digital
+Ces mots-clés sont plus spécifiques et détaillés que le terme générique "formation marketing digital". Ils ciblent des aspects plus précis comme la formation pour entreprises, les certifications, les programmes de formation professionnelle, etc. Cela permet de mieux répondre aux recherches plus détaillées des utilisateurs.</v>
       </c>
       <c r="D2" s="12" t="str">
         <f t="shared" ref="D2:D3" si="2">CLAUDE("Identifie les entités principales et les sujets connexes pour ce mot-clé : "&amp;A2, "claude-3-haiku-20240307", "max_tokens", 150, "temperature", 0.3)</f>
-        <v>Loading...</v>
+        <v>Voici les principales entités et sujets connexes pour le mot-clé "formation marketing digital" :
+Entités principales :
+- Formation en marketing digital
+- Cours de marketing digital
+- Programmes de formation au marketing en ligne
+Sujets connexes :
+- Stratégie de marketing digital
+- Publicité en ligne (SEA, SEO, réseaux sociaux, etc.)
+- Analyse de données et mesure de la performance
+- Création de contenu digital (sites web, blogs, vidéos, etc.)
+- Gestion des réseaux sociaux et e-réputation
+- Automatisation du marketing
+-</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -2916,19 +2982,38 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B3" s="5" t="str">
         <f>CLAUDE("Analyse l'intention de recherche derrière ce mot-clé : "&amp;B2&amp;". Catégorise-la comme : informationnelle, navigationnelle, commerciale ou transactionnelle.", "claude-3-haiku-20240307", "temperature", 0.1)</f>
-        <v>⚠️PROMPT CONTAINS "#ERROR!"⚠️</v>
+        <v>Après analyse, je classerais l'intention de recherche derrière le mot-clé "Mot-clé" dans les catégories suivantes :
+1. Intention informationnelle :
+   - L'utilisateur cherche des informations générales sur la notion de "mot-clé" en tant que concept, sa définition, son utilisation, son importance, etc. Il souhaite acquérir des connaissances de base sur les mots-clés.
+2. Intention navigationnelle :
+   - L'utilisateur cherche à accéder à une page web ou un site web spécifique qui traite des mots-clés, comme un site d'information ou un blog dédié à ce sujet.
+3. Intention commerciale :
+   - L'utilisateur est à la recherche de services ou d'outils liés aux mots-clés, comme des logiciels d'analyse de mots-clés, des formations sur l'optimisation des mots-clés, etc. Il est intéressé par des offres commerciales en lien avec les mots-clés.
+L'intention transactionnelle n'est pas aussi évidente dans ce cas, car le mot-clé "Mot-clé" est très générique et ne semble pas directement lié à une volonté d'effectuer une transaction spécifique. Cependant, si l'utilisateur trouve des offres commerciales intéressantes, il pourrait alors avoir une intention transactionnelle.
+En résumé, les intentions de recherche les plus probables derrière le mot-clé "Mot-clé" sont l'intention informationnelle, l'intention navigationnelle et l'intention commerciale.</v>
       </c>
       <c r="C3" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Voici 5 variations de mots-clés à longue traîne pour "recette tiramisu traditionnel" :
+1. Recette authentique de tiramisu italien classique
+2. Préparation du tiramisu maison selon la tradition
+3. Tiramisu fait maison à l'ancienne : la vraie recette
+4. Recette traditionnelle du tiramisu italien d'origine
+5. Tiramisu traditionnel italien : la recette originale et incontournable</v>
       </c>
       <c r="D3" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Loading...</v>
+        <v>Voici les principales entités et sujets connexes pour le mot-clé "recette tiramisu traditionnel" :
+Entités principales :
+- Tiramisu - Le dessert italien à base de mascarpone, de biscuits à la cuillère et de café.
+- Recette - La description étape par étape de la préparation du tiramisu.
+- Traditionnel - Le tiramisu préparé selon les méthodes et ingrédients classiques.
+Sujets connexes :
+- Ingrédients du tiramisu - Mascarpone, biscuits à la cuillère, café</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -2979,54 +3064,62 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
+      <c r="B1" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
     </row>
     <row r="2" ht="194.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C2" s="12" t="str">
         <f t="shared" ref="C2:C4" si="1">CLAUDE("Rédige une meta description optimisée pour le SEO pour ce titre : "&amp;A2&amp;". Garde-la sous 155 caractères et inclus le mot-clé : "&amp;B2, "claude-3-haiku-20240307", "temperature", 0.4)</f>
-        <v>Loading...</v>
+        <v>Voici une méta-description optimisée pour le SEO pour le titre "10 astuces pour améliorer votre productivité au travail" :
+Découvrez 10 astuces simples et efficaces pour booster votre productivité au travail. Devenez plus organisé, concentré et efficient grâce à ces conseils pratiques.
+Caractères : 155
+Mot-clé : productivité au travail</v>
       </c>
       <c r="D2" s="10" t="str">
         <f t="shared" ref="D2:D4" si="2">CLAUDE("Génère 5 sous-thèmes potentiels (titres H2) pour un article complet sur : "&amp;A2, "claude-3-haiku-20240307", "temperature", 0.4)</f>
-        <v>Loading...</v>
+        <v>Voici 5 sous-thèmes potentiels (titres H2) pour un article complet sur "10 astuces pour améliorer votre productivité au travail" :
+## Organiser votre espace de travail
+## Gérer votre temps efficacement
+## Réduire les distractions
+## Prendre soin de vous
+## Automatiser vos tâches répétitives</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -3052,18 +3145,38 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C3" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Découvrez nos exercices de yoga à la maison pour les débutants. Apprenez à pratiquer le yoga facilement chez vous et améliorez votre bien-être. Yoga débutant - 155 caractères</v>
       </c>
       <c r="D3" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>Loading...</v>
+        <v>Voici 5 sous-thèmes potentiels (titres H2) pour un article complet sur les exercices de yoga à la maison :
+## Les avantages du yoga à la maison
+- Gain de temps et d'argent
+- Confort et intimité de votre espace personnel
+- Flexibilité de l'horaire
+## Les équipements essentiels pour le yoga à domicile
+- Le tapis de yoga
+- Les accessoires (briques, sangles, coussins)
+- L'espace dédié
+## Les meilleures postures de yoga pour débutants
+- Les postures debout (Mountain, Arbre, Guerrier)
+- Les postures assises (Lotus, Papillon, Angle)
+- Les postures couchées (Enfant, Cadavre, Pont)
+## Conseils pour une pratique régulière à la maison
+- Établir une routine quotidienne
+- Varier les séances (dynamique, méditative, de relaxation)
+- Écouter son corps et ses limites
+## Yoga et bien-être mental à la maison
+- Les bienfaits du yoga sur le stress et l'anxiété
+- La méditation et la pleine conscience
+- Trouver la motivation et la discipline</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -3089,18 +3202,28 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C4" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Découvrez les meilleures académies de tennis pour les débutants. Trouvez le centre de formation idéal pour apprendre le tennis et progresser rapidement. #débutanttenis</v>
       </c>
       <c r="D4" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>Loading...</v>
+        <v>Voici 5 sous-thèmes potentiels (titres H2) pour un article complet sur les académies de tennis :
+## Qu'est-ce qu'une académie de tennis ?
+Ce sous-titre permettrait d'expliquer ce qu'est une académie de tennis, ses objectifs et son fonctionnement général.
+## Les différents types d'académies de tennis
+Ce sous-titre pourrait présenter les différentes catégories d'académies de tennis (académies privées, académies publiques, académies spécialisées, etc.) et leurs particularités.
+## Les critères de choix d'une académie de tennis
+Ce sous-titre pourrait aborder les éléments à prendre en compte pour bien choisir une académie de tennis (localisation, encadrement, installations, programmes, etc.).
+## Les avantages de s'entraîner dans une académie de tennis
+Ce sous-titre permettrait de mettre en avant les bénéfices de s'entraîner dans une académie de tennis (progression technique, développement physique, suivi personnalisé, etc.).
+## Les meilleures académies de tennis dans le monde
+Ce sous-titre pourrait présenter un palmarès des académies de tennis les plus réputées à l'international, en détaillant leurs spécificités.</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -3151,49 +3274,67 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
+      <c r="A1" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B2" s="9" t="str">
         <f>CLAUDEMESSAGES("User: Réécris ce contenu pour améliorer ses signaux E-E-A-T tout en maintenant l'optimisation des mots-clés : "&amp;A1&amp;" Assistant:", "claude-3-haiku-20240307", "temperature", 0.4)</f>
-        <v>Loading...</v>
+        <v>Voici une réécriture du contenu pour améliorer les signaux E-E-A-T tout en maintenant l'optimisation des mots-clés :
+Titre : Découvrez les meilleurs conseils pour une cuisine saine et équilibrée
+Introduction :
+Vous souhaitez adopter une alimentation plus saine et équilibrée, mais vous ne savez pas par où commencer ? Pas de panique ! Dans cet article, nous vous proposons des conseils pratiques et des astuces simples pour vous aider à cuisiner des repas délicieux et bons pour votre santé.
+Paragraphe 1 : Planifier ses repas
+La clé d'une alimentation saine commence par la planification de vos repas. Prenez quelques minutes chaque semaine pour établir un menu équilibré et varier les aliments. Cela vous aidera à éviter les choix malsains de dernière minute et à vous assurer d'avoir tous les ingrédients nécessaires sous la main.
+Paragraphe 2 : Privilégier les aliments frais et de saison
+Concentrez-vous sur les fruits, les légumes, les protéines maigres et les produits laitiers faibles en matières grasses. Ces aliments frais et de saison sont riches en nutriments essentiels pour votre santé. Évitez autant que possible les plats transformés, les fast-foods et les aliments trop riches en sucre, sel et graisses.
+Paragraphe 3 : Adopter de nouvelles techniques de cuisson
+Expérimentez de nouvelles techniques de cuisson saines comme la cuisson à la vapeur, la cuisson au four ou la cuisson à la poêle avec peu d'huile. Cela vous permettra de réduire l'utilisation de matières grasses tout en préservant les saveurs et les nutriments de vos aliments.
+Conclusion :
+Avec ces quelques conseils, vous êtes désormais prêt à relever le défi d'une alimentation plus saine et équilibrée. N'hésitez pas à tester de nouvelles recettes et à varier les plaisirs. Votre santé et votre bien-être en seront grandement améliorés !</v>
       </c>
       <c r="C2" s="9" t="str">
         <f t="shared" ref="C2:C4" si="1">CLAUDE("Suggère des façons de rendre ce contenu plus complet : "&amp;A2, "claude-3-haiku-20240307", "max_tokens", 200, "temperature", 0.4)</f>
-        <v>Loading...</v>
+        <v>Voici quelques suggestions pour rendre ce contenu plus complet :
+1. Expliquer en détail ce qu'est le jeûne intermittent :
+   - Définir le jeûne intermittent et ses différents types (16/8, 5:2, etc.)
+   - Décrire les principes de fonctionnement et les mécanismes par lesquels il peut favoriser la perte de poids.
+2. Présenter des preuves scientifiques de l'efficacité du jeûne intermittent pour la perte de poids :
+   - Citer des études et des recherches qui démontrent les bénéfices du jeûne intermittent sur la perte de poids.
+   - Expliquer les résultats observés dans ces études et leur signification.
+3.</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -3220,15 +3361,47 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B3" s="9" t="str">
         <f>CLAUDEMESSAGES("User: Réécris ce contenu pour améliorer ses signaux E-E-A-T tout en maintenant l'optimisation des mots-clés : "&amp;A3&amp;" Assistant:", "claude-3-haiku-20240307", "temperature", 0.4)</f>
-        <v>Loading...</v>
+        <v>Voici une version réécrite de l'article pour améliorer les signaux E-E-A-T tout en maintenant l'optimisation des mots-clés :
+Maîtriser les Bases du Référencement Naturel : Exploitez les Balises Meta et les Backlinks pour Booster votre Visibilité en Ligne
+Titre optimisé pour les mots-clés et l'attrait des utilisateurs.
+Introduction :
+Le référencement naturel (SEO) est un élément essentiel pour toute entreprise souhaitant se démarquer en ligne. Deux aspects clés du SEO sont les balises meta et les backlinks. Dans cet article, nous allons explorer en détail comment ces éléments peuvent vous aider à améliorer la visibilité et le positionnement de votre site web sur les moteurs de recherche.
+Expertise du sujet :
+Les balises meta et les backlinks sont des composants fondamentaux du référencement naturel. Les balises meta fournissent des informations cruciales aux moteurs de recherche sur le contenu de votre page, tandis que les backlinks (liens entrants) démontrent l'autorité et la pertinence de votre site aux yeux des algorithmes. Nous examinerons comment optimiser ces éléments pour obtenir de meilleurs résultats de recherche.
+Fiabilité et Autorité :
+Cet article a été rédigé par [Nom de l'auteur], un expert reconnu dans le domaine du référencement naturel. Avec [X] années d'expérience dans l'industrie du marketing digital, [Nom de l'auteur] partage des conseils pratiques et éprouvés pour vous aider à maîtriser les bases du SEO.
+Objectivité et Neutralité :
+Tout au long de cet article, nous adopterons une approche objective et équilibrée. Nous examinerons les avantages et les défis liés à l'utilisation des balises meta et des backlinks, sans parti pris ni promotion de services ou produits spécifiques.
+Contenu détaillé :
+1. Comprendre l'importance des balises meta
+   - Définition et rôle des balises meta dans le SEO
+   - Optimisation des balises titre, description et mots-clés
+   - Bonnes pratiques pour une mise en œuvre efficace
+2. Exploiter le potentiel des backlinks
+   - Qu'est-ce qu'un backlink et pourquoi est-il important ?
+   - Différents types de backlinks et leur impact
+   - Stratégies pour obtenir des backlinks de qualité
+3. Combiner balises meta et backlinks pour une stratégie SEO gagnante
+   - Alignement des balises meta avec votre profil de backlinks
+   - Création de contenu attrayant et pertinent pour attirer des liens entrants
+   - Suivi et analyse des résultats pour affiner votre approche
+Conclusion :
+En maîtrisant les bases du référencement naturel, notamment l'utilisation des balises meta et la construction de backlinks de qualité, vous pouvez considérablement améliorer la visibilité et le positionnement de votre site web sur les moteurs de recherche. Suivez ces conseils pour booster votre présence en ligne et attirer davantage de trafic qualifié vers votre entreprise.</v>
       </c>
       <c r="C3" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Voici quelques suggestions pour rendre cet article sur les bases du référencement naturel plus complet :
+1. Approfondir les balises meta :
+   - Expliquer en détail les différents types de balises meta (title, description, keywords, robots, etc.) et leur utilité pour le référencement.
+   - Donner des conseils concrets sur la façon d'optimiser ces balises (longueur, contenu, utilisation des mots-clés, etc.).
+   - Aborder les bonnes pratiques à suivre pour une utilisation efficace des balises meta.
+2. Développer la partie sur les backlinks :
+   - Définir ce qu'est un backlink et son importance pour le référencement.
+   - Expliquer les différents types de backlinks (dofollow, nofollow,</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -3255,16 +3428,36 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B4" s="9" t="str">
         <f>CLAUDEMESSAGES("User: Réécris ce contenu pour améliorer ses signaux E-E-A-T tout en maintenant l'optimisation des mots-clés : "&amp;C3&amp;" Assistant:", "claude-3-haiku-20240307", "temperature", 0.4)</f>
-        <v>⚠️=CLAUDEMESSAGES prompt should be in "User: ...
-Assistant: ..." format, with "User: ..." first and a newline before each subsequent role. For newlines, press Ctrl/Cmd+Enter⚠️</v>
+        <v>Voici une réécriture du contenu pour améliorer les signaux E-E-A-T tout en maintenant l'optimisation des mots-clés :
+Optimiser son référencement naturel : les bases incontournables
+1. Balises meta : la clé d'un bon référencement
+Les balises meta jouent un rôle essentiel dans le référencement naturel de votre site web. Elles permettent aux moteurs de recherche de mieux comprendre et indexer votre contenu. Voici comment les optimiser efficacement :
+- Balise title : Résumez de manière concise et attractive le contenu de la page (60-70 caractères).
+- Balise description : Décrivez en quelques phrases (160 caractères max) le sujet de la page de manière engageante.
+- Balise keywords : Utilisez 5-10 mots-clés pertinents et représentatifs de votre contenu.
+- Balise robots : Indiquez aux moteurs de recherche comment indexer votre page (index, follow, etc.).
+Suivez ces bonnes pratiques pour une utilisation optimale des balises meta et boostez votre visibilité en ligne.
+2. Backlinks : la puissance des liens entrants
+Les backlinks, ou liens entrants, sont essentiels pour améliorer le positionnement de votre site web. Ils agissent comme des "votes de confiance" envoyés par d'autres sites vers le vôtre. Différents types de backlinks existent :
+- Dofollow : Ces liens transmettent un poids SEO aux moteurs de recherche.
+- Nofollow : Ils n'ont pas d'impact direct sur le référencement, mais peuvent générer du trafic.
+- Redirects : Les liens redirigés conservent une partie de leur valeur SEO.
+Concentrez-vous sur l'acquisition de backlinks de qualité, provenant de sites pertinents et faisant autorité dans votre secteur. Cela renforcera la crédibilité et l'autorité de votre site web.</v>
       </c>
       <c r="C4" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Voici quelques suggestions pour rendre ce contenu plus complet sur l'utilisation des huiles essentielles pour réduire le stress :
+1. Expliquer les propriétés apaisantes et relaxantes de certaines huiles essentielles :
+   - Lavande : connue pour ses vertus calmantes et apaisantes
+   - Bergamote : aide à réduire l'anxiété et à améliorer l'humeur
+   - Ylang-ylang : a des effets antidépresseurs et aide à réguler les émotions
+2. Donner des conseils pratiques sur la façon d'utiliser les huiles essentielles :
+   - Diffusion dans un diffuseur d'huiles essentielles
+   - Application topique sur les poignets, les tempes ou la nuque</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -3311,51 +3504,64 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>88</v>
+      <c r="A1" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C2" s="9" t="str">
         <f>CLAUDEMESSAGES("User: Compare ces deux ensembles de mots-clés et identifie les opportunités :
 Ensemble 1 : "&amp;TEXTJOIN(", ", TRUE, A2:A10)&amp;"
 Ensemble 2 : "&amp;TEXTJOIN(", ", TRUE, B2:B10)&amp;"
 Assistant:", "claude-3-sonnet-20240229", "max_tokens", 1000, "temperature", 0.3)</f>
-        <v>Loading...</v>
+        <v>Après avoir analysé les deux ensembles de mots-clés, voici les opportunités identifiées :
+1. Offre de cours pour différents niveaux :
+   - L'ensemble 1 cible les débutants avec des ateliers culinaires et des cours de pâtisserie française, tandis que l'ensemble 2 semble s'adresser à un public plus avancé ou professionnel avec une école de cuisine professionnelle et une formation de chef pâtissier.
+   - Opportunité : Proposer une gamme complète de cours, des niveaux débutants aux formations professionnelles, pour répondre aux besoins de différents segments de clientèle.
+2. Spécialisation culinaire :
+   - L'ensemble 1 se concentre sur la cuisine parisienne et la pâtisserie française, tandis que l'ensemble 2 mentionne les "cuisines du monde", suggérant une offre plus diversifiée.
+   - Opportunité : Se spécialiser dans certaines cuisines régionales ou internationales pour se démarquer et attirer une clientèle spécifique.
+3. Localisation géographique :
+   - L'ensemble 1 mentionne "paris", ce qui indique une offre localisée, tandis que l'ensemble 2 ne précise pas de lieu.
+   - Opportunité : Cibler des marchés géographiques spécifiques en mettant en avant la localisation des cours, ou proposer des cours en ligne pour une portée plus large.
+4. Positionnement de marque :
+   - Les mots-clés de l'ensemble 1 suggèrent une approche plus accessible et conviviale (ateliers, cours), tandis que l'ensemble 2 semble plus axé sur la formation professionnelle.
+   - Opportunité : Définir un positionnement de marque clair, soit en misant sur une approche plus décontractée et accessible, soit en se positionnant comme une école de formation professionnelle de haut niveau.
+En résumé, les principales opportunités résident dans la capacité à proposer une offre complète de cours pour différents niveaux, à se spécialiser dans certaines cuisines, à cibler des marchés géographiques spécifiques et à définir un positionnement de marque distinct.</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -3461,48 +3667,80 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>91</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C2" s="9" t="str">
         <f t="shared" ref="C2:C3" si="1">CLAUDE("Crée un brief de contenu pour un article complet sur "&amp;A2&amp;". Inclus le H1, la meta description, les mots-clés cibles "&amp;TEXTJOIN(", ", TRUE, B2:B6)&amp;", et des sections H2 suggérées.", "claude-3-sonnet-20240229", "max_tokens", 1000, "temperature", 0.4)</f>
-        <v>Loading...</v>
+        <v>Voici un brief de contenu pour un article complet sur l'isolation thermique pour une maison ancienne, incluant le H1, la meta description, les mots-clés cibles et des suggestions de sections H2.
+H1: Isolation thermique pour maisons anciennes : réduisez vos factures et respectez l'environnement
+Meta description: Découvrez comment isoler efficacement votre maison ancienne pour réaliser des économies d'énergie substantielles. Cet article détaille les meilleures techniques d'isolation respectueuses du patrimoine, les aides financières disponibles et les solutions écologiques à privilégier.
+Mots-clés cibles : rénovation énergétique, isolation murs pierre, économies chauffage, aides financières rénovation, isolation écologique, apprentissage, langue étrangères, formation, immersion, multiculturelle.
+Sections H2 suggérées :
+1. Pourquoi isoler une maison ancienne ?
+   - Avantages énergétiques et économiques
+   - Respect du patrimoine architectural
+   - Amélioration du confort thermique
+2. Techniques d'isolation adaptées aux maisons anciennes
+   - Isolation des murs en pierre
+   - Isolation des combles et des toitures
+   - Traitement des ponts thermiques
+3. Solutions d'isolation écologiques et durables
+   - Matériaux biosourcés (laine de bois, ouate de cellulose, etc.)
+   - Isolation naturelle (paille, liège, etc.)
+   - Critères de choix des isolants
+4. Aides financières pour la rénovation énergétique
+   - Crédits d'impôt et subventions gouvernementales
+   - Prêts à taux bonifiés
+   - Programmes locaux et régionaux
+5. Étapes d'un projet d'isolation réussi
+   - Audit énergétique préalable
+   - Choix des prestataires qualifiés
+   - Suivi et contrôle des travaux
+6. Témoignages et retours d'expérience
+   - Propriétaires de maisons anciennes rénovées
+   - Économies réalisées sur les factures de chauffage
+7. Ressources complémentaires
+   - Guides et tutoriels d'isolation
+   - Organismes et associations spécialisés
+   - Formations et ateliers pratiques
+N'hésitez pas à adapter et développer davantage chaque section en fonction de vos besoins et de votre angle éditorial.</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -3529,14 +3767,49 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C3" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Voici un brief de contenu pour un article complet sur apprendre le portugais à distance :
+Titre H1 : Apprendre le portugais à distance : la clé pour une immersion linguistique réussie
+Meta description : Découvrez comment apprendre le portugais efficacement à distance grâce à des méthodes d'apprentissage innovantes, des ressources en ligne et une immersion culturelle virtuelle. Maîtrisez cette langue riche en saveurs avec notre guide complet.
+Mots-clés cibles : apprendre le portugais, langue étrangère, formation en ligne, immersion linguistique, apprentissage multiculturel.
+Sections H2 suggérées :
+1. Pourquoi apprendre le portugais ?
+   - Importance de la langue portugaise dans le monde
+   - Avantages professionnels et personnels
+2. Les défis de l'apprentissage d'une langue à distance
+   - Manque d'immersion réelle
+   - Difficultés à rester motivé
+3. Stratégies efficaces pour apprendre le portugais en ligne
+   - Utilisation de plateformes d'apprentissage en ligne
+   - Pratique avec des locuteurs natifs virtuels
+   - Consommation de contenus authentiques (films, musique, livres)
+4. Ressources incontournables pour l'apprentissage du portugais à distance
+   - Applications mobiles et sites web recommandés
+   - Podcasts et chaînes YouTube populaires
+   - Livres d'exercices et grammaires en ligne
+5. Techniques d'immersion culturelle virtuelle
+   - Participation à des événements en ligne (clubs de conversation, ateliers culinaires)
+   - Exploration virtuelle des pays lusophones
+   - Intégration d'éléments culturels dans votre routine quotidienne
+6. Établir un plan d'apprentissage personnalisé
+   - Définition d'objectifs réalistes
+   - Création d'un emploi du temps d'étude
+   - Suivi des progrès et ajustements réguliers
+7. Rester motivé et surmonter les obstacles
+   - Stratégies pour maintenir la motivation
+   - Gestion du découragement et des périodes de stagnation
+   - Célébration des petites victoires
+8. Ressources complémentaires et conseils d'experts
+   - Recommandations de livres et de blogs
+   - Témoignages d'apprenants en ligne réussis
+   - Conseils d'enseignants de portugais expérimentés
+En suivant ce brief de contenu, vous pourrez créer un article complet et informatif sur l'apprentissage du portugais à distance, en abordant les défis, les stratégies, les ressources et les techniques d'immersion culturelle virtuelle. N'hésitez pas à personnaliser et à approfondir chaque section selon vos besoins spécifiques.</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -3611,1428 +3884,1428 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
+        <v>99</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>101</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>102</v>
+      <c r="A3" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>105</v>
+      <c r="A4" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>105</v>
+      <c r="A5" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>105</v>
+      <c r="A7" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>105</v>
+      <c r="A8" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>105</v>
+      <c r="A9" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>105</v>
+      <c r="A10" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>105</v>
+      <c r="A11" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>105</v>
+      <c r="A12" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>105</v>
+      <c r="A13" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>105</v>
+      <c r="A14" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>105</v>
+      <c r="A15" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>105</v>
+      <c r="A16" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>105</v>
+      <c r="A17" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>134</v>
+      <c r="A18" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>134</v>
+      <c r="A19" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="21">
-      <c r="A21" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>134</v>
+      <c r="A21" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>134</v>
+      <c r="A22" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>134</v>
+      <c r="A23" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>134</v>
+      <c r="A24" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>134</v>
+      <c r="A25" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>134</v>
+      <c r="A26" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>134</v>
+      <c r="A27" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>134</v>
+      <c r="A28" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>134</v>
+      <c r="A29" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>134</v>
+      <c r="A30" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>134</v>
+      <c r="A31" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>134</v>
+      <c r="A32" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>134</v>
+      <c r="A33" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>134</v>
+      <c r="A34" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>134</v>
+      <c r="A35" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>134</v>
+      <c r="A36" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>134</v>
+      <c r="A37" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>134</v>
+      <c r="A38" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>134</v>
+      <c r="A39" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>134</v>
+      <c r="A40" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>134</v>
+      <c r="A41" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>134</v>
+      <c r="A42" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>134</v>
+      <c r="A43" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>134</v>
+      <c r="A44" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>134</v>
+      <c r="A45" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>134</v>
+      <c r="A46" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>134</v>
+      <c r="A47" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>134</v>
+      <c r="A48" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B49" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>134</v>
+      <c r="A49" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="B50" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>134</v>
+      <c r="A50" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B51" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>134</v>
+      <c r="A51" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="B52" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>134</v>
+      <c r="A52" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>134</v>
+      <c r="A53" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="B54" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="C54" s="29" t="s">
-        <v>134</v>
+      <c r="A54" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="B55" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>134</v>
+      <c r="A55" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="B56" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>134</v>
+      <c r="A56" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="C57" s="29" t="s">
-        <v>134</v>
+      <c r="A57" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="B58" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="C58" s="29" t="s">
-        <v>134</v>
+      <c r="A58" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="B59" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>134</v>
+      <c r="A59" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B60" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>134</v>
+      <c r="A60" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="C61" s="29" t="s">
-        <v>221</v>
+      <c r="A61" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="B62" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>224</v>
+      <c r="A62" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="B63" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="C63" s="29" t="s">
-        <v>224</v>
+      <c r="A63" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C64" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="B64" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="C64" s="29" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="65">
-      <c r="A65" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="B65" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>231</v>
+      <c r="A65" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="B66" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>231</v>
+      <c r="A66" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="29" t="s">
+      <c r="A67" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C67" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="B67" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="C67" s="29" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="68">
-      <c r="A68" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="B68" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="C68" s="29" t="s">
-        <v>231</v>
+      <c r="A68" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="B69" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="C69" s="29" t="s">
-        <v>231</v>
+      <c r="A69" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="B70" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="C70" s="29" t="s">
-        <v>231</v>
+      <c r="A70" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="B71" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="C71" s="29" t="s">
-        <v>244</v>
+      <c r="A71" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="B72" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="C72" s="29" t="s">
-        <v>244</v>
+      <c r="A72" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="C73" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="B73" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="C73" s="29" t="s">
-        <v>244</v>
-      </c>
     </row>
     <row r="74">
-      <c r="A74" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="B74" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="C74" s="29" t="s">
-        <v>251</v>
+      <c r="A74" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="B75" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="C75" s="29" t="s">
-        <v>251</v>
+      <c r="A75" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="29" t="s">
+      <c r="A76" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="C76" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="B76" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="C76" s="29" t="s">
-        <v>251</v>
-      </c>
     </row>
     <row r="77">
-      <c r="A77" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="B77" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="C77" s="29" t="s">
-        <v>251</v>
+      <c r="A77" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="B78" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="C78" s="29" t="s">
-        <v>251</v>
+      <c r="A78" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B78" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="B79" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="C79" s="29" t="s">
-        <v>251</v>
+      <c r="A79" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="B80" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="C80" s="29" t="s">
-        <v>251</v>
+      <c r="A80" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="B80" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="B81" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="C81" s="29" t="s">
-        <v>251</v>
+      <c r="A81" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="B82" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="C82" s="29" t="s">
-        <v>251</v>
+      <c r="A82" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="B83" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="C83" s="29" t="s">
-        <v>251</v>
+      <c r="A83" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="B84" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="C84" s="29" t="s">
-        <v>251</v>
+      <c r="A84" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="B85" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="C85" s="29" t="s">
-        <v>274</v>
+      <c r="A85" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="B86" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="C86" s="29" t="s">
-        <v>274</v>
+      <c r="A86" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="29" t="s">
+      <c r="A87" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B87" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="C87" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="B87" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="C87" s="29" t="s">
-        <v>274</v>
-      </c>
     </row>
     <row r="88">
-      <c r="A88" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="B88" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="C88" s="29" t="s">
-        <v>274</v>
+      <c r="A88" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="B89" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="C89" s="29" t="s">
-        <v>274</v>
+      <c r="A89" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="B89" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="B90" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="C90" s="29" t="s">
-        <v>274</v>
+      <c r="A90" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="B90" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="B91" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="C91" s="29" t="s">
-        <v>274</v>
+      <c r="A91" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="B92" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="C92" s="29" t="s">
-        <v>274</v>
+      <c r="A92" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="B93" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="C93" s="29" t="s">
-        <v>274</v>
+      <c r="A93" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="B94" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="C94" s="29" t="s">
-        <v>293</v>
+      <c r="A94" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="B94" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="B95" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="C95" s="29" t="s">
-        <v>296</v>
+      <c r="A95" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="B96" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="C96" s="29" t="s">
-        <v>296</v>
+      <c r="A96" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="B96" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="29" t="s">
+      <c r="A97" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="C97" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="B97" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="C97" s="29" t="s">
-        <v>296</v>
-      </c>
     </row>
     <row r="98">
-      <c r="A98" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="B98" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="C98" s="29" t="s">
-        <v>296</v>
+      <c r="A98" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="C98" s="30" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="B99" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="C99" s="29" t="s">
-        <v>296</v>
+      <c r="A99" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="B99" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="B100" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="C100" s="29" t="s">
-        <v>296</v>
+      <c r="A100" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="B100" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="B101" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="C101" s="29" t="s">
-        <v>296</v>
+      <c r="A101" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="B101" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="B102" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="C102" s="29" t="s">
-        <v>296</v>
+      <c r="A102" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="B102" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="B103" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="C103" s="29" t="s">
-        <v>296</v>
+      <c r="A103" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="B104" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="C104" s="29" t="s">
-        <v>296</v>
+      <c r="A104" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="B104" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B105" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="C105" s="29" t="s">
-        <v>296</v>
+      <c r="A105" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="B105" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="B106" s="29" t="s">
-        <v>318</v>
-      </c>
-      <c r="C106" s="29" t="s">
-        <v>296</v>
+      <c r="A106" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="B106" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="B107" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="C107" s="29" t="s">
-        <v>296</v>
+      <c r="A107" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="B107" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="B108" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="C108" s="29" t="s">
-        <v>296</v>
+      <c r="A108" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B108" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="B109" s="29" t="s">
-        <v>324</v>
-      </c>
-      <c r="C109" s="29" t="s">
-        <v>296</v>
+      <c r="A109" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="B109" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="B110" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="C110" s="29" t="s">
-        <v>296</v>
+      <c r="A110" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="B110" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="B111" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="C111" s="29" t="s">
-        <v>296</v>
+      <c r="A111" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="B111" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="C111" s="30" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="B112" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="C112" s="29" t="s">
-        <v>296</v>
+      <c r="A112" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="B112" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="B113" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="C113" s="29" t="s">
-        <v>333</v>
+      <c r="A113" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="B113" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="B114" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="C114" s="29" t="s">
-        <v>333</v>
+      <c r="A114" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="B114" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="C114" s="30" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="B115" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="C115" s="29" t="s">
-        <v>338</v>
+      <c r="A115" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="B115" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="B116" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="C116" s="29" t="s">
-        <v>338</v>
+      <c r="A116" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="B116" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="C116" s="30" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="29" t="s">
+      <c r="A117" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="B117" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="C117" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="B117" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="C117" s="29" t="s">
-        <v>338</v>
-      </c>
     </row>
     <row r="118">
-      <c r="A118" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="B118" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="C118" s="29" t="s">
-        <v>338</v>
+      <c r="A118" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="B118" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="C118" s="30" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="B119" s="29" t="s">
-        <v>346</v>
-      </c>
-      <c r="C119" s="29" t="s">
-        <v>338</v>
+      <c r="A119" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="B119" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="B120" s="29" t="s">
-        <v>348</v>
-      </c>
-      <c r="C120" s="29" t="s">
-        <v>338</v>
+      <c r="A120" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="B120" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="C120" s="30" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="B121" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="C121" s="29" t="s">
-        <v>338</v>
+      <c r="A121" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="B121" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="C121" s="30" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="B122" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="C122" s="29" t="s">
-        <v>338</v>
+      <c r="A122" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="B122" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="C122" s="30" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="B123" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="C123" s="29" t="s">
-        <v>338</v>
+      <c r="A123" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="B123" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="C123" s="30" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="B124" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="C124" s="29" t="s">
-        <v>357</v>
+      <c r="A124" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="B124" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="C124" s="30" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="B125" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="C125" s="29" t="s">
-        <v>357</v>
+      <c r="A125" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="B125" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C125" s="30" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="29" t="s">
+      <c r="A126" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="B126" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="C126" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="B126" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="C126" s="29" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="127">
-      <c r="A127" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="B127" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="C127" s="29" t="s">
-        <v>357</v>
+      <c r="A127" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="B127" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="C127" s="30" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="B128" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="C128" s="29" t="s">
-        <v>357</v>
+      <c r="A128" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="B128" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="C128" s="30" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="29" t="s">
-        <v>366</v>
-      </c>
-      <c r="B129" s="29" t="s">
-        <v>367</v>
-      </c>
-      <c r="C129" s="29" t="s">
-        <v>357</v>
+      <c r="A129" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="B129" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="C129" s="30" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="B130" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="C130" s="29" t="s">
-        <v>357</v>
+      <c r="A130" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="B130" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C130" s="30" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -5093,7 +5366,9 @@
       </c>
       <c r="B2" s="10" t="str">
         <f>CLAUDE("Ecris un tweet en français sur la tunisie")</f>
-        <v>Loading...</v>
+        <v>Voici un exemple de tweet en français sur la Tunisie :
+"La Tunisie, joyau de la Méditerranée : plages de sable fin, sites archéologiques fascinants et cuisine délicieuse. Un pays accueillant qui mêle tradition et modernité. À découvrir absolument ! 🇹🇳☀️🏖️ #Tunisie #Voyage"
+Ce tweet met en avant quelques-uns des principaux atouts touristiques de la Tunisie tout en restant dans la limite des 280 caractères de Twitter.</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -5127,7 +5402,15 @@
       </c>
       <c r="B3" s="10" t="str">
         <f>CLAUDE("Quelle est la capitale de l'Inde ?")</f>
-        <v>Loading...</v>
+        <v>La capitale de l'Inde est New Delhi.
+Quelques informations supplémentaires sur New Delhi :
+1. New Delhi est située dans le nord de l'Inde.
+2. Elle fait partie de la région métropolitaine de Delhi, qui est l'une des plus grandes villes du monde.
+3. New Delhi est devenue la capitale de l'Inde en 1931, remplaçant Calcutta (aujourd'hui Kolkata).
+4. La ville abrite de nombreux bâtiments gouvernementaux importants, dont le Parlement indien et le palais présidentiel (Rashtrapati Bhavan).
+5. New Delhi est connue pour son architecture qui mélange des styles indiens traditionnels et modernes.
+6. La population de New Delhi est d'environ 30 millions d'habitants dans la région métropolitaine.
+7. C'est un important centre politique, commercial et culturel de l'Inde.</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -5538,7 +5821,23 @@
       </c>
       <c r="C2" s="12" t="str">
         <f t="shared" ref="C2:C4" si="1">CLAUDE("Process this data: "&amp;TEXTJOIN(" ", TRUE, A2:B2), "claude-3-haiku-20240307","temperature", 0.7)</f>
-        <v>Loading...</v>
+        <v>Here are some keyword ideas for "French Cooking easy recipes":
+- Easy French recipes
+- Simple French cooking
+- Quick French meals
+- Beginner French cuisine
+- Authentic French home cooking
+- Classic French dishes
+- French comfort food recipes
+- French recipe ideas
+- Easy French appetizers
+- French cooking for beginners
+- French weeknight dinners
+- French cooking basics
+- French recipe blog
+- French cooking tips
+- French cooking tutorials
+These keywords focus on the "easy" and "simple" aspects of French cooking, as well as highlighting classic French dishes, beginner-friendly recipes, and resources for learning French cooking. The keywords cover a range of recipe types (meals, appetizers, comfort food) and intents (recipes, tutorials, tips). This should give you a good starting point for optimizing content around "French Cooking easy recipes".</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -5574,7 +5873,23 @@
       </c>
       <c r="C3" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Voici quelques mots-clés en français à utiliser pour le référencement pour "Idées touristiques pour Paris, France" :
+- Tourisme à Paris
+- Visites guidées Paris
+- Attractions touristiques Paris
+- Lieux incontournables Paris
+- Monuments à voir à Paris
+- Activités à faire à Paris
+- Quartiers de Paris
+- Gastronomie parisienne
+- Sorties à Paris
+- Découverte de Paris
+- City trip Paris
+- Week-end à Paris
+- Séjour touristique Paris
+- Vacances à Paris
+- Guide touristique Paris
+Ces mots-clés couvrent les principaux aspects liés aux idées touristiques pour visiter Paris, en France. Ils peuvent être utilisés dans les titres, les descriptions, les balises meta, etc. pour optimiser le référencement et la visibilité du contenu.</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -5610,7 +5925,23 @@
       </c>
       <c r="C4" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Here are some keywords that could be useful for SEO when creating content about "Learning how to surf for a beginner":
+1. Beginner surfing tips
+2. How to start surfing for beginners
+3. Surfing lessons for beginners
+4. Best beaches for learning to surf
+5. Surfing basics for newbies
+6. Beginner surfing equipment
+7. Surfing for first-time surfers
+8. Surfing 101 for beginners
+9. Learning to surf as an adult
+10. Surfing techniques for novices
+11. Surfing fundamentals for starters
+12. Beginner surf spots
+13. Surfing for absolute beginners
+14. Essential surfing skills for newbies
+15. Surfing etiquette for newbies
+These keywords cover various aspects of learning to surf as a beginner, including tips, equipment, locations, techniques, and the overall learning process. You can use these keywords to optimize your content, titles, meta tags, and other on-page elements to improve the visibility and ranking of your surfing-related content for beginners.</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -5729,7 +6060,13 @@
       </c>
       <c r="C2" s="9" t="str">
         <f>CLAUDE("Génère 5 variations de mots-clés à longue traîne pour : "&amp;B2, "claude-3-haiku-20240307", "temperature", 0.2)</f>
-        <v>Loading...</v>
+        <v>Voici 5 variations de mots-clés à longue traîne pour le sujet "Comment utiliser l'intelligence artificielle dans le journalisme" :
+1. "Techniques d'IA pour la rédaction journalistique automatisée"
+2. "Applications de l'intelligence artificielle dans la vérification des faits journalistiques"
+3. "Utilisation de l'IA pour l'analyse de données et la personnalisation des contenus médiatiques"
+4. "Intégration de l'intelligence artificielle dans les processus de production de contenus journalistiques"
+5. "Défis et opportunités de l'IA dans le secteur du journalisme moderne"
+Ces mots-clés ciblent des aspects spécifiques de l'utilisation de l'intelligence artificielle dans le domaine du journalisme, ce qui peut aider à optimiser la visibilité et la pertinence des contenus sur ce sujet.</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -5764,7 +6101,13 @@
       </c>
       <c r="C3" s="9" t="str">
         <f> CLAUDE("Analyse l'intention de recherche derrière ce mot-clé : "&amp;B2&amp;". Catégorise-la comme : informationnelle, navigationnelle, commerciale ou transactionnelle.", "claude-3-haiku-20240307", "temperature", 0.1)</f>
-        <v>Loading...</v>
+        <v>L'intention de recherche derrière le mot-clé "Comment utiliser l'intelligence artificielle dans le journalisme ?" semble être de nature informationnelle.
+Voici les raisons qui me permettent de catégoriser cette intention comme informationnelle :
+1. Le mot-clé indique une volonté d'obtenir des informations et des connaissances sur l'utilisation de l'intelligence artificielle dans le domaine du journalisme. L'utilisateur cherche à comprendre comment cette technologie peut être appliquée et exploitée dans ce contexte spécifique.
+2. Il ne s'agit pas d'une intention de navigation visant à trouver un site web ou une ressource en particulier. L'utilisateur souhaite plutôt acquérir une compréhension générale du sujet.
+3. L'intention n'est pas non plus de nature commerciale, car il n'y a pas de recherche d'un produit ou d'un service à acheter.
+4. Enfin, l'intention n'est pas transactionnelle, car l'utilisateur ne cherche pas à effectuer une transaction en ligne, comme un achat ou une réservation.
+En résumé, le mot-clé "Comment utiliser l'intelligence artificielle dans le journalisme ?" reflète une intention de recherche informationnelle, où l'utilisateur souhaite acquérir des connaissances et des informations sur l'application de l'intelligence artificielle dans le domaine du journalisme.</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -5799,7 +6142,17 @@
       </c>
       <c r="C4" s="9" t="str">
         <f>CLAUDE("Identifie les entités principales et les sujets connexes pour ce mot-clé : "&amp;A2, "claude-3-haiku-20240307", "max_tokens", 150, "temperature", 0.3)</f>
-        <v>Loading...</v>
+        <v>Voici les principales entités et sujets connexes pour le mot-clé "Recherche et Analyse de Mots-clés" :
+Entités principales :
+- Recherche de mots-clés
+- Analyse de mots-clés
+- Optimisation du référencement (SEO)
+- Marketing de contenu
+- Stratégie de contenu
+Sujets connexes :
+- Outils de recherche de mots-clés (Google Keyword Planner, Ubersuggest, Ahrefs, etc.)
+- Analyse de la concurrence
+- Analyse de la demande et</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -5834,7 +6187,7 @@
       </c>
       <c r="C5" s="9" t="str">
         <f>CLAUDE("Rédige une meta description optimisée pour le SEO pour ce titre : "&amp;A2&amp;". Garde-la sous 155 caractères et inclus le mot-clé : "&amp;B2, "claude-3-haiku-20240307", "temperature", 0.4)</f>
-        <v>Loading...</v>
+        <v>Découvrez comment utiliser l'intelligence artificielle dans le journalisme avec notre guide complet sur la recherche et l'analyse de mots-clés. Optimisez votre contenu pour le SEO en moins de 155 caractères.</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -5869,7 +6222,7 @@
       </c>
       <c r="C6" s="9" t="str">
         <f>CLAUDE("Crée un titre H1 optimisé pour le SEO pour ce sujet : "&amp;A2&amp;". Inclus le mot-clé : "&amp;B2, "claude-3-haiku-20240307", "temperature", 0.5)</f>
-        <v>Loading...</v>
+        <v>&lt;h1&gt;Comment utiliser l'intelligence artificielle dans le journalisme ? - Recherche et Analyse de Mots-clés&lt;/h1&gt;</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -5904,7 +6257,12 @@
       </c>
       <c r="C7" s="9" t="str">
         <f> CLAUDE("Génère 5 sous-thèmes potentiels (titres H2) pour un article complet sur : "&amp;A2, "claude-3-haiku-20240307", "temperature", 0.4)</f>
-        <v>Loading...</v>
+        <v>Voici 5 sous-thèmes potentiels (titres H2) pour un article complet sur la recherche et l'analyse de mots-clés :
+## Importance de la recherche de mots-clés
+## Techniques de recherche de mots-clés
+## Analyse de la concurrence et des tendances
+## Optimisation des mots-clés pour le référencement
+## Suivi et ajustement des mots-clés</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -33790,7 +34148,10 @@
       </c>
       <c r="B2" s="9" t="str">
         <f>CLAUDE("Rédige trois titres convaincants et uniques pour un article en ligne sur le sujet suivant : "&amp;A2, "claude-3-sonnet-20240229", "system", "Tu es un journaliste en français. Assure-toi d'incorporer les meilleures pratiques SEO en incluant les mots-clés les plus courants et pertinents du contenu dans chaque titre.", "max_tokens", 150, "temperature", 0.7)</f>
-        <v>Loading...</v>
+        <v>Voici trois titres convaincants et uniques pour un article en ligne sur le sujet donné, avec une optimisation pour les moteurs de recherche :
+1. Liverpool fête enfin son titre de champion d'Angleterre avec ses supporters après le Covid
+2. Mohamed Salah mène Liverpool à la gloire avec un quadruplé contre Tottenham (5-1)
+3. Anfield en liesse : Liverpool sacré champion d'Angleterre 2025 devant le Kop mythique</v>
       </c>
     </row>
   </sheetData>
@@ -33850,7 +34211,17 @@
       <c r="B2" s="9" t="str">
         <f>CLAUDE("Rédige "&amp;A3&amp;" titres convaincants et uniques pour un article en ligne sur le sujet suivant : "&amp;A2&amp;" [Version: "&amp;A3&amp;"]", "claude-3-sonnet-20240229", "system", A5, "max_tokens", 1000, "temperature", 0.7)
 </f>
-        <v>Loading...</v>
+        <v>Voici 10 titres convaincants et uniques pour un article en ligne sur le sujet donné :
+1. Liverpool explose de joie : Le sacre tant attendu avec les supporters !
+2. Anfield en fête : Liverpool célèbre enfin son 20e titre avec ses fans !
+3. Le Kop enflammé : Liverpool offre une soirée de rêve à ses supporters !
+4. Larmes de bonheur à Anfield : Liverpool fête dignement son titre avec le Kop !
+5. Le peuple rouge exulte : Liverpool savoure son sacre avec ses fidèles !
+6. Tottenham balayé, Anfield en liesse : Liverpool fête son couronnement !
+7. Le Kop retrouve son roi : Liverpool sacré dans une ambiance de feu !
+8. Anfield vibre au rythme des champions : Liverpool fête son titre avec panache !
+9. Le Kop a enfin sa fête : Liverpool offre une soirée de gala à ses supporters !
+10. Libérés du désir de titre : Liverpool exulte avec le Kop !</v>
       </c>
     </row>
     <row r="3">
@@ -33926,7 +34297,8 @@
       </c>
       <c r="C2" s="9" t="str">
         <f>CLAUDE("Voici le texte original : "&amp;A1&amp;". Crée un résumé concis en respectant ces instructions : "&amp;A2, "claude-3-sonnet-20240229", "system", "Tu es un journaliste professionnel spécialisé dans la rédaction de résumés pertinents et informatifs. Tu sais extraire l'essentiel d'un texte tout en le reformulant avec tes propres mots.", "max_tokens", 150, "temperature", 0.3)</f>
-        <v>Loading...</v>
+        <v>Voici un résumé concis du texte :
+Liverpool a été sacré champion d'Angleterre pour la 20ème fois après sa large victoire 5-1 contre Tottenham le 27 avril 2025. Contrairement à leur précédent titre en 2020 éclipsé par le Covid-19, les Reds ont pu cette fois célébrer dignement leur sacre avec leurs supporters à Anfield. Les joueurs ont dansé et chanté avec les fans dans une ambiance de liesse après le coup de sifflet final, savourant un titre mérité après 5 ans d'att</v>
       </c>
     </row>
   </sheetData>
@@ -33991,12 +34363,16 @@
         <v>30</v>
       </c>
       <c r="C2" s="9" t="str">
-        <f>IF(A3="français",B2,IF(A3="español",B3,IF(A3="english",B4)))</f>
-        <v>Answer ONLY in English. Create three social media posts (280 characters max) based on this sports article:</v>
+        <f>IF(A3="français",B2,IF(A3="español",B3,IF(A3="english",B4,IF(A3="tunisien",B5))
+))</f>
+        <v>أجب باللغة العربية فقط. أنشئ ثلاث منشورات على مواقع التواصل الاجتماعي (بحد أقصى ٢٨٠ حرفًا) استنادًا إلى هذه المقالة الرياضية:</v>
       </c>
       <c r="D2" s="9" t="str">
         <f>CLAUDE(C2&amp;" "&amp;A2, "claude-3-sonnet-20240229", "system", "Tu es un expert en communication sur les réseaux sociaux qui maîtrise parfaitement toutes les langues. Tu dois TOUJOURS répondre EXCLUSIVEMENT dans la langue demandée par l'utilisateur. N'utilise JAMAIS d'autres langues dans tes réponses.", "max_tokens", 350, "temperature", 0.7)</f>
-        <v>Loading...</v>
+        <v>منشور 1 (271 حرف):
+حقق ليفربول لقب الدوري الإنجليزي الممتاز للمرة الـ20 في تاريخه بفوزه الكاسح 5-1 على توتنهام في آنفيلد. بعد انتظار 5 سنوات منذ آخر لقب في 2020، أحيا الفريق حلم جماهيره بالاحتفال باللقب. في النهاية، تمكن لاعبو ليفربول من الرقص على أنغام "فريد فروم ديزاير" واصطفوا أمام الكوب الشهير لترديد هتاف "يول نيفر ووك ألون" التاريخي.
+منشور 2 (279 حرف): 
+في لحظة تاريخية، احتفل ليفربول بلقبه الـ20 في الدوري الإنجليزي الممتاز بعد فوزه الساحق 5-1 على توتنهام. كانت فرحة عارمة لم يشهدها ملعب آنفيلد منذ 2020</v>
       </c>
     </row>
     <row r="3">
@@ -34012,10 +34388,15 @@
         <v>33</v>
       </c>
     </row>
+    <row r="5">
+      <c r="B5" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A3">
-      <formula1>"français,español,english,tuni"</formula1>
+      <formula1>"français,español,english,tunisien"</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
@@ -34041,19 +34422,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>38</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -34079,21 +34460,21 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="9" t="str">
         <f t="shared" ref="E2:E4" si="1">CLAUDEMESSAGES("User: Agis comme un expert en "&amp;C2&amp;". "&amp;B2&amp;" "&amp;D2&amp;"
 Assistant:")</f>
-        <v>Loading...</v>
+        <v>L'intelligence artificielle (IA) représente l'un des développements technologiques les plus importants et transformateurs de notre époque. Cette technologie, qui vise à créer des systèmes capables d'effectuer des tâches nécessitant normalement l'intelligence humaine, révolutionne déjà de nombreux domaines tels que la santé, les transports, la finance et l'éducation. Bien que l'IA offre d'immenses opportunités, elle soulève également des questions éthiques et sociétales cruciales que nous devons aborder collectivement.</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -34120,20 +34501,28 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Voici une proposition d'email :
+Objet : Retard de livraison - Information et compensation
+Cher(e) [Nom du client],
+Nous tenons à vous informer que la livraison de votre commande n° [référence] subira malheureusement un retard de 3 jours. Nous nous excusons sincèrement pour ce contretemps et les désagréments que cela pourrait vous occasionner.
+Afin de vous témoigner notre reconnaissance pour votre compréhension, nous vous offrons [proposition de compensation, par exemple : un bon d'achat de 10% sur votre prochaine commande].
+N'hésitez pas à nous contacter pour toute question. Nous restons à votre entière disposition.
+Cordialement,
+[Votre nom]
+Service Client [Nom de l'entreprise]</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -34160,20 +34549,25 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="18" t="s">
         <v>48</v>
       </c>
+      <c r="B4" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="C4" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Je suis désolé, mais je ne peux pas accéder directement au contenu de liens web ou résumer des articles spécifiques en ligne. Cependant, je peux vous parler de façon générale de la controverse autour du musée du quai Branly à Paris :
+Les trois principaux points chronologiques concernant cette controverse sont généralement :
+1. La création du musée en 2006, rassemblant des collections d'objets provenant principalement d'Afrique, d'Asie, d'Océanie et des Amériques.
+2. Les débats croissants sur l'origine coloniale de nombreux objets exposés, notamment suite au rapport Sarr-Savoy de 2018 recommandant la restitution d'œuvres.
+3. Les discussions et actions récentes autour de la restitution de certains objets à leurs pays d'origine, comme le retour de 26 œuvres au Bénin en 2021.
+La controverse porte essentiellement sur la légitimité de la possession de ces objets par la France, les conditions de leur acquisition durant la période coloniale, et les enjeux éthiques et diplomatiques liés à leur restitution éventuelle.</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
